--- a/biology/Zoologie/Chelidae/Chelidae.xlsx
+++ b/biology/Zoologie/Chelidae/Chelidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Chelidae sont une famille de tortues. Elle a été créée par John Edward Gray en 1825.
 Elle comprend une cinquantaine d'espèces de tortues aquatiques pleurodires. 
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Australie, en Nouvelle-Guinée et en Amérique du Sud.
 </t>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elles sont aquatiques ou semi-aquatiques. La plupart des espèces vivent dans des eaux douces calmes ou les marais, bien que les Chelodina siebenrocki vivent dans l'eau salée.
 La Chelodina expansa est la plus grande des Chelidae avec près de 50 cm adulte, la plus petite est la Pseudemydura umbrina avec 15 cm adulte.
@@ -575,9 +591,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon TFTSG  (10 janvier 2013)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon TFTSG  (10 janvier 2013) :
 sous-famille Chelinae Gray, 1825
 genre Acanthochelys Gray, 1873
 genre Chelus Duméril, 1806
@@ -622,9 +640,11 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classification présentée ici est la simplification de celle présentée par A. Georges, J. Birrell, K. M. Saint, W. McCord und S. C. Donnellan[2] basée sur l'analyse génétique.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classification présentée ici est la simplification de celle présentée par A. Georges, J. Birrell, K. M. Saint, W. McCord und S. C. Donnellan basée sur l'analyse génétique.
 </t>
         </is>
       </c>
@@ -653,7 +673,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1825 : A synopsis of the genera of reptiles and Amphibia, with a description of some new species. Annals of Philosophy, London, ser. 2, vol. 10, p. 193–217 (texte intégral).</t>
         </is>
